--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Edit Checkin(#10)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>Edit Checkin(#26)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,13 +45,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OKT_OK_2542_D1</t>
-  </si>
-  <si>
-    <t>768189916160</t>
-  </si>
-  <si>
-    <t>10001A</t>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>x0018fcttr</t>
+  </si>
+  <si>
+    <t>CF1-2PK</t>
+  </si>
+  <si>
+    <t>WHSU21978056/8/18</t>
+  </si>
+  <si>
+    <t>P1-01-2</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -422,10 +428,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -480,14 +486,36 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D4"/>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
-    <t>Edit Checkin(#26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking: </t>
+    <t>Edit Checkin(#88)</t>
+  </si>
+  <si>
+    <t>Tracking: 7/2/2018-ups</t>
   </si>
   <si>
     <t>Status: Pending</t>
@@ -45,16 +45,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>FILTER</t>
-  </si>
-  <si>
-    <t>x0018fcttr</t>
-  </si>
-  <si>
-    <t>CF1-2PK</t>
-  </si>
-  <si>
-    <t>WHSU21978056/8/18</t>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>X001NJZE8V</t>
+  </si>
+  <si>
+    <t>richave-2</t>
+  </si>
+  <si>
+    <t>7/2/18</t>
   </si>
   <si>
     <t>P1-01-2</t>
@@ -420,7 +420,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -428,10 +428,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -492,29 +492,9 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>Edit Checkin(#88)</t>
-  </si>
-  <si>
-    <t>Tracking: 7/2/2018-ups</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>Edit Checkin(#1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking: </t>
   </si>
   <si>
     <t>Status: Pending</t>
@@ -45,19 +45,22 @@
     <t>Location</t>
   </si>
   <si>
-    <t>blanket</t>
-  </si>
-  <si>
-    <t>X001NJZE8V</t>
-  </si>
-  <si>
-    <t>richave-2</t>
-  </si>
-  <si>
-    <t>7/2/18</t>
-  </si>
-  <si>
-    <t>P1-01-2</t>
+    <t>txdqizhihang0001</t>
+  </si>
+  <si>
+    <t>10099C</t>
+  </si>
+  <si>
+    <t>C-0000-XL</t>
+  </si>
+  <si>
+    <t>C0000XL</t>
+  </si>
+  <si>
+    <t>C-0000-L</t>
+  </si>
+  <si>
+    <t>C0000L</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -428,10 +431,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -483,19 +486,53 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>27002</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>Edit Checkin(#1)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>Edit Checkin(#11)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,22 +45,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>txdqizhihang0001</t>
-  </si>
-  <si>
-    <t>10099C</t>
-  </si>
-  <si>
-    <t>C-0000-XL</t>
-  </si>
-  <si>
-    <t>C0000XL</t>
-  </si>
-  <si>
-    <t>C-0000-L</t>
-  </si>
-  <si>
-    <t>C0000L</t>
+    <t>C-0000-2XL</t>
+  </si>
+  <si>
+    <t>C00002XL</t>
+  </si>
+  <si>
+    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -423,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -431,9 +422,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -486,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -496,43 +487,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>27002</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
-    <t>Edit Checkin(#11)</t>
+    <t>Edit Checkin(#18)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -51,7 +51,7 @@
     <t>C00002XL</t>
   </si>
   <si>
-    <t>10001A</t>
+    <t>10005A</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
-    <t>Edit Checkin(#18)</t>
+    <t>Edit Checkin(#19)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,13 +45,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>C-0000-2XL</t>
-  </si>
-  <si>
-    <t>C00002XL</t>
-  </si>
-  <si>
-    <t>10005A</t>
+    <t>RC-15</t>
+  </si>
+  <si>
+    <t>X001CPSMEJ</t>
+  </si>
+  <si>
+    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -422,9 +422,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
-    <t>Edit Checkin(#19)</t>
+    <t>Edit Checkin(#2)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,13 +45,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>RC-15</t>
-  </si>
-  <si>
-    <t>X001CPSMEJ</t>
-  </si>
-  <si>
-    <t>10001A</t>
+    <t>RC-03</t>
+  </si>
+  <si>
+    <t>X000Y005XJ</t>
+  </si>
+  <si>
+    <t>10097A</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Edit Checkin(#2)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Edit Checkin(#24)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,13 +45,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>RC-03</t>
-  </si>
-  <si>
-    <t>X000Y005XJ</t>
-  </si>
-  <si>
-    <t>10097A</t>
+    <t>OA4</t>
   </si>
 </sst>
 </file>
@@ -422,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -477,18 +471,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="F4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Edit Checkin(#24)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>Edit Checkin(#3)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,7 +45,13 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA4</t>
+    <t>RC-03</t>
+  </si>
+  <si>
+    <t>X000Y005XJ</t>
+  </si>
+  <si>
+    <t>10001A</t>
   </si>
 </sst>
 </file>
@@ -416,9 +422,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -471,16 +477,18 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4"/>
+        <v>1000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>Edit Checkin(#3)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Edit Checkin(#28)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,13 +45,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>RC-03</t>
-  </si>
-  <si>
-    <t>X000Y005XJ</t>
-  </si>
-  <si>
-    <t>10001A</t>
+    <t>OA6</t>
+  </si>
+  <si>
+    <t>A0</t>
   </si>
 </sst>
 </file>
@@ -422,9 +419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -477,17 +474,17 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
-    <t>Edit Checkin(#28)</t>
+    <t>Edit Checkin(#29)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,7 +45,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA6</t>
+    <t>OA13</t>
   </si>
   <si>
     <t>A0</t>
@@ -420,8 +420,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Edit Checkin(#29)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Edit Checkin(#33)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,10 +45,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>OA13</t>
-  </si>
-  <si>
-    <t>A0</t>
+    <t>portree 30-48 sink</t>
   </si>
 </sst>
 </file>
@@ -419,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -481,11 +478,9 @@
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Edit Checkin(#33)</t>
+    <t>Edit Checkin(#32)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,7 +45,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>portree 30-48 sink</t>
+    <t>portree 72 sink</t>
   </si>
 </sst>
 </file>
@@ -416,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Edit Checkin(#32)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Edit Checkin(#33)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,7 +45,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>portree 72 sink</t>
+    <t>portree 30-48 sink</t>
+  </si>
+  <si>
+    <t>A0</t>
   </si>
 </sst>
 </file>
@@ -416,9 +419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -480,7 +483,9 @@
       <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
-    <t>Edit Checkin(#33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking: </t>
+    <t>Edit Checkin(#22)</t>
+  </si>
+  <si>
+    <t>Tracking: 880-23456789</t>
   </si>
   <si>
     <t>Status: Pending</t>
@@ -45,10 +45,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>portree 30-48 sink</t>
-  </si>
-  <si>
-    <t>A0</t>
+    <t>Chandelier Snak</t>
+  </si>
+  <si>
+    <t>Trampoline Green</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -419,9 +419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -473,19 +473,33 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>742271416370</v>
+      </c>
+      <c r="C4">
+        <v>742271416370</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5">
+        <v>742271417056</v>
+      </c>
+      <c r="C5">
+        <v>742271417056</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>81</v>
+      </c>
+      <c r="F5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Edit Checkin(#22)</t>
-  </si>
-  <si>
-    <t>Tracking: 880-23456789</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Edit Checkin(#33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking: </t>
   </si>
   <si>
     <t>Status: Pending</t>
@@ -45,10 +45,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Chandelier Snak</t>
-  </si>
-  <si>
-    <t>Trampoline Green</t>
+    <t>portree 30-48 sink</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -419,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -473,33 +470,17 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>742271416370</v>
-      </c>
-      <c r="C4">
-        <v>742271416370</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>742271417056</v>
-      </c>
-      <c r="C5">
-        <v>742271417056</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5">
-        <v>81</v>
-      </c>
-      <c r="F5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Edit Checkin(#33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>Edit Checkin(#22)</t>
+  </si>
+  <si>
+    <t>Tracking: 880-23456789</t>
   </si>
   <si>
     <t>Status: Pending</t>
@@ -45,7 +45,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>portree 30-48 sink</t>
+    <t>Chandelier Snak</t>
+  </si>
+  <si>
+    <t>742271416370</t>
+  </si>
+  <si>
+    <t>Trampoline Green</t>
+  </si>
+  <si>
+    <t>742271417056</t>
   </si>
 </sst>
 </file>
@@ -408,7 +417,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -416,9 +425,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -471,16 +480,32 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>81</v>
+      </c>
+      <c r="F5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Edit Checkin(#22)</t>
   </si>
@@ -48,13 +48,7 @@
     <t>Chandelier Snak</t>
   </si>
   <si>
-    <t>742271416370</t>
-  </si>
-  <si>
     <t>Trampoline Green</t>
-  </si>
-  <si>
-    <t>742271417056</t>
   </si>
 </sst>
 </file>
@@ -479,11 +473,11 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="B4">
+        <v>742271416370</v>
+      </c>
+      <c r="C4">
+        <v>742271416370</v>
       </c>
       <c r="D4"/>
       <c r="E4">
@@ -493,13 +487,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>742271417056</v>
+      </c>
+      <c r="C5">
+        <v>742271417056</v>
       </c>
       <c r="D5"/>
       <c r="E5">

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Edit Checkin(#22)</t>
-  </si>
-  <si>
-    <t>Tracking: 880-23456789</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Edit Checkin(#3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking: </t>
   </si>
   <si>
     <t>Status: Pending</t>
@@ -45,10 +45,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Chandelier Snak</t>
-  </si>
-  <si>
-    <t>Trampoline Green</t>
+    <t>TEST1</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -419,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -473,33 +470,17 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>742271416370</v>
-      </c>
-      <c r="C4">
-        <v>742271416370</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>742271417056</v>
-      </c>
-      <c r="C5">
-        <v>742271417056</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5">
-        <v>81</v>
-      </c>
-      <c r="F5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
-    <t>Edit Checkin(#3)</t>
+    <t>Edit Checkin(#4)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,7 +45,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>TEST1</t>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -416,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -473,8 +473,8 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4">
+        <v>111</v>
       </c>
       <c r="D4"/>
       <c r="E4">

--- a/admin/assets/file/export/checkin.xlsx
+++ b/admin/assets/file/export/checkin.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Edit Checkin(#4)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+  <si>
+    <t>Edit Checkin(#35)</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking: </t>
@@ -45,7 +45,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>AAA</t>
+    <t>MUSTANG Floor Mat</t>
+  </si>
+  <si>
+    <t>TP107</t>
   </si>
 </sst>
 </file>
@@ -416,9 +419,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -471,10 +474,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4"/>
       <c r="E4">
